--- a/SchedulingData/dynamic9/pso/scheduling2_15.xlsx
+++ b/SchedulingData/dynamic9/pso/scheduling2_15.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>208.86</v>
+        <v>237.62</v>
       </c>
       <c r="D2" t="n">
-        <v>261.5</v>
+        <v>292.32</v>
       </c>
       <c r="E2" t="n">
-        <v>16.42</v>
+        <v>10.948</v>
       </c>
     </row>
     <row r="3">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>243.26</v>
+        <v>239.22</v>
       </c>
       <c r="D3" t="n">
-        <v>292.18</v>
+        <v>290</v>
       </c>
       <c r="E3" t="n">
-        <v>10.952</v>
+        <v>14.48</v>
       </c>
     </row>
     <row r="4">
@@ -504,98 +504,98 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>292.18</v>
+        <v>290</v>
       </c>
       <c r="D4" t="n">
-        <v>342.4</v>
+        <v>328.76</v>
       </c>
       <c r="E4" t="n">
-        <v>8.039999999999999</v>
+        <v>11.744</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>221.56</v>
+        <v>213.84</v>
       </c>
       <c r="D5" t="n">
-        <v>265.12</v>
+        <v>270.5</v>
       </c>
       <c r="E5" t="n">
-        <v>12.148</v>
+        <v>11.14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>277.96</v>
+        <v>292.32</v>
       </c>
       <c r="D6" t="n">
-        <v>330.76</v>
+        <v>350.26</v>
       </c>
       <c r="E6" t="n">
-        <v>11.064</v>
+        <v>8.244</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>249.2</v>
+        <v>270.5</v>
       </c>
       <c r="D7" t="n">
-        <v>298.58</v>
+        <v>323.06</v>
       </c>
       <c r="E7" t="n">
-        <v>13.772</v>
+        <v>8.004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>265.12</v>
+        <v>328.76</v>
       </c>
       <c r="D8" t="n">
-        <v>321.58</v>
+        <v>388.46</v>
       </c>
       <c r="E8" t="n">
-        <v>8.612</v>
+        <v>8.884</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -603,18 +603,18 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>209.24</v>
+        <v>206.28</v>
       </c>
       <c r="D9" t="n">
-        <v>271.94</v>
+        <v>288.98</v>
       </c>
       <c r="E9" t="n">
-        <v>12.856</v>
+        <v>12.792</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -622,51 +622,51 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>321.58</v>
+        <v>233.56</v>
       </c>
       <c r="D10" t="n">
-        <v>390.66</v>
+        <v>272.94</v>
       </c>
       <c r="E10" t="n">
-        <v>5.804</v>
+        <v>12.876</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond43</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>298.58</v>
+        <v>288.98</v>
       </c>
       <c r="D11" t="n">
-        <v>340.48</v>
+        <v>340.98</v>
       </c>
       <c r="E11" t="n">
-        <v>10.712</v>
+        <v>9.712</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>342.4</v>
+        <v>202.74</v>
       </c>
       <c r="D12" t="n">
-        <v>381.1</v>
+        <v>252.48</v>
       </c>
       <c r="E12" t="n">
-        <v>5.8</v>
+        <v>14.292</v>
       </c>
     </row>
     <row r="13">
@@ -675,17 +675,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>261.5</v>
+        <v>340.98</v>
       </c>
       <c r="D13" t="n">
-        <v>319.54</v>
+        <v>373.98</v>
       </c>
       <c r="E13" t="n">
-        <v>13.716</v>
+        <v>7.552</v>
       </c>
     </row>
     <row r="14">
@@ -694,36 +694,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>340.48</v>
+        <v>272.94</v>
       </c>
       <c r="D14" t="n">
-        <v>389.14</v>
+        <v>315.06</v>
       </c>
       <c r="E14" t="n">
-        <v>7.956</v>
+        <v>10.284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>319.54</v>
+        <v>252.48</v>
       </c>
       <c r="D15" t="n">
-        <v>375.32</v>
+        <v>307.78</v>
       </c>
       <c r="E15" t="n">
-        <v>10.748</v>
+        <v>10.392</v>
       </c>
     </row>
     <row r="16">
@@ -732,74 +732,74 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>390.66</v>
+        <v>350.26</v>
       </c>
       <c r="D16" t="n">
-        <v>432.78</v>
+        <v>408.46</v>
       </c>
       <c r="E16" t="n">
-        <v>3.212</v>
+        <v>6.004</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>330.76</v>
+        <v>307.78</v>
       </c>
       <c r="D17" t="n">
-        <v>394.66</v>
+        <v>351.54</v>
       </c>
       <c r="E17" t="n">
-        <v>6.804</v>
+        <v>7.636</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>271.94</v>
+        <v>323.06</v>
       </c>
       <c r="D18" t="n">
-        <v>324.74</v>
+        <v>373.28</v>
       </c>
       <c r="E18" t="n">
-        <v>10.696</v>
+        <v>5.092</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>394.66</v>
+        <v>315.06</v>
       </c>
       <c r="D19" t="n">
-        <v>449.66</v>
+        <v>376.56</v>
       </c>
       <c r="E19" t="n">
-        <v>3.944</v>
+        <v>7.224</v>
       </c>
     </row>
   </sheetData>
